--- a/biology/Zoologie/Holothuria_(Halodeima)/Holothuria_(Halodeima).xlsx
+++ b/biology/Zoologie/Holothuria_(Halodeima)/Holothuria_(Halodeima).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holothuria (Halodeima) est un sous-genre de concombres de mer de la famille des Holothuriidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des holothuries tropicales, présentes dans les trois principaux bassins océaniques. La plupart des espèces sont cylindriques (avec un trivium légèrement plat), lisses (avec des podia en trois rangées distinctes mais denses sur le trivium et des papilles réduites et éparpillées sur le bivium), et de taille moyenne à importante[2], parfois plissées avec l'âge. Ces espèces sont équipées de 20 tentacules buccaux. D'un point de vue squelettique, ces espèces n'ont jamais de spicules en forme de grandes plaques ou de bâtons épineux[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des holothuries tropicales, présentes dans les trois principaux bassins océaniques. La plupart des espèces sont cylindriques (avec un trivium légèrement plat), lisses (avec des podia en trois rangées distinctes mais denses sur le trivium et des papilles réduites et éparpillées sur le bivium), et de taille moyenne à importante, parfois plissées avec l'âge. Ces espèces sont équipées de 20 tentacules buccaux. D'un point de vue squelettique, ces espèces n'ont jamais de spicules en forme de grandes plaques ou de bâtons épineux. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, ce groupe fut proposé par Joseph Pearson (d) en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria[1]. 
-Selon World Register of Marine Species                               (11 septembre 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, ce groupe fut proposé par Joseph Pearson (d) en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria. 
+Selon World Register of Marine Species                               (11 septembre 2016) :
 Holothuria atra Jaeger, 1833 -- Indo-Pacifique tropical
 Holothuria edulis Lesson, 1830 -- Indo-Pacifique tropical
 Holothuria enalia Lampert, 1885 -- Brésil (connue uniquement de l'holotype)
